--- a/excel_data/Book24.xlsx
+++ b/excel_data/Book24.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DBC4FA-2D95-471E-AD35-D5D6802CA565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TME-1\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD5C1B-A4F0-4A68-882B-3584F2B214CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E479D578-BD8A-4895-B658-716D462F331C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E479D578-BD8A-4895-B658-716D462F331C}"/>
   </bookViews>
   <sheets>
     <sheet name="masterlead" sheetId="1" r:id="rId1"/>
@@ -18,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -113,9 +109,6 @@
   </si>
   <si>
     <t>smallint</t>
-  </si>
-  <si>
-    <t>default = null / 0, 1 = retrieve</t>
   </si>
   <si>
     <t>off</t>
@@ -1517,6 +1510,9 @@
   </si>
   <si>
     <t>conname + plink</t>
+  </si>
+  <si>
+    <t>default = null / 0, 1 = lock</t>
   </si>
 </sst>
 </file>
@@ -2915,30 +2911,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7637C-B6C0-45EB-BF4B-9D78094334E4}">
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" customWidth="1"/>
-    <col min="16" max="16" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3043,24 +3041,24 @@
         <v>19</v>
       </c>
       <c r="P3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="3" t="s">
@@ -3070,42 +3068,42 @@
         <v>19</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -3114,62 +3112,62 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="L6" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
       </c>
       <c r="M6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -3178,39 +3176,39 @@
         <v>20</v>
       </c>
       <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -3219,39 +3217,39 @@
         <v>19</v>
       </c>
       <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3261,39 +3259,39 @@
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -3303,63 +3301,63 @@
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="I11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12">
         <v>150</v>
@@ -3368,42 +3366,42 @@
         <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>72</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
@@ -3412,45 +3410,45 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
@@ -3459,39 +3457,39 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
-      </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15">
         <v>150</v>
@@ -3500,30 +3498,30 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
@@ -3533,39 +3531,39 @@
         <v>19</v>
       </c>
       <c r="P16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" t="s">
         <v>88</v>
       </c>
-      <c r="Q16" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M17">
         <v>150</v>
@@ -3574,39 +3572,39 @@
         <v>19</v>
       </c>
       <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
         <v>92</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" t="s">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
@@ -3618,33 +3616,33 @@
         <v>19</v>
       </c>
       <c r="P18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>100</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
@@ -3654,33 +3652,33 @@
         <v>19</v>
       </c>
       <c r="P19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
         <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>104</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -3689,36 +3687,36 @@
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>107</v>
-      </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21">
         <v>50</v>
@@ -3727,39 +3725,39 @@
         <v>19</v>
       </c>
       <c r="P21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" t="s">
         <v>108</v>
       </c>
-      <c r="Q21" t="s">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22">
         <v>255</v>
@@ -3768,33 +3766,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>113</v>
-      </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -3803,33 +3801,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
         <v>114</v>
       </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>115</v>
-      </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -3838,71 +3836,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="L25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
+      <c r="J26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="L26" t="s">
         <v>26</v>
@@ -3911,36 +3909,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
         <v>121</v>
       </c>
-      <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>122</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
@@ -3949,36 +3947,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>126</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>127</v>
-      </c>
-      <c r="K28" t="s">
-        <v>128</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -3987,39 +3985,39 @@
         <v>20</v>
       </c>
       <c r="Q28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>130</v>
       </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -4028,30 +4026,30 @@
         <v>20</v>
       </c>
       <c r="Q29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>134</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
@@ -4061,33 +4059,33 @@
         <v>19</v>
       </c>
       <c r="P30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="Q30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>137</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -4096,33 +4094,33 @@
         <v>19</v>
       </c>
       <c r="P31" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" t="s">
         <v>138</v>
       </c>
-      <c r="Q31" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>141</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -4131,27 +4129,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
         <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>144</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
@@ -4161,36 +4159,36 @@
         <v>19</v>
       </c>
       <c r="P33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>146</v>
       </c>
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>147</v>
       </c>
-      <c r="J34" t="s">
-        <v>148</v>
-      </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -4199,36 +4197,36 @@
         <v>20</v>
       </c>
       <c r="P34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
         <v>150</v>
       </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>151</v>
-      </c>
       <c r="L35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M35">
         <v>255</v>
@@ -4237,33 +4235,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>153</v>
-      </c>
       <c r="L36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M36">
         <v>800</v>
@@ -4272,40 +4270,40 @@
         <v>19</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>156</v>
       </c>
-      <c r="D37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>157</v>
-      </c>
       <c r="L37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M37">
         <v>800</v>
@@ -4314,33 +4312,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M38">
         <v>800</v>
@@ -4349,36 +4347,36 @@
         <v>19</v>
       </c>
       <c r="Q38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
         <v>161</v>
       </c>
-      <c r="D39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>162</v>
-      </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M39">
         <v>800</v>
@@ -4387,33 +4385,33 @@
         <v>19</v>
       </c>
       <c r="Q39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>164</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>165</v>
       </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s">
-        <v>166</v>
-      </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M40">
         <v>800</v>
@@ -4422,27 +4420,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>169</v>
-      </c>
       <c r="J42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s">
         <v>48</v>
-      </c>
-      <c r="K42" t="s">
-        <v>49</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -4451,47 +4449,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
         <v>170</v>
       </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>171</v>
       </c>
-      <c r="L43" t="s">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s">
-        <v>175</v>
-      </c>
       <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
         <v>48</v>
-      </c>
-      <c r="K44" t="s">
-        <v>49</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
@@ -4500,53 +4498,53 @@
         <v>20</v>
       </c>
       <c r="Q44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
         <v>178</v>
       </c>
-      <c r="L45" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>180</v>
-      </c>
       <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
         <v>48</v>
-      </c>
-      <c r="K46" t="s">
-        <v>49</v>
       </c>
       <c r="L46" t="s">
         <v>22</v>
@@ -4555,64 +4553,64 @@
         <v>20</v>
       </c>
       <c r="P46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
         <v>182</v>
       </c>
-      <c r="D47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
         <v>183</v>
       </c>
-      <c r="L47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>184</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>185</v>
       </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>186</v>
-      </c>
-      <c r="I48" t="s">
-        <v>187</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
       </c>
       <c r="P48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s">
-        <v>189</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -4621,36 +4619,36 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" t="s">
         <v>190</v>
       </c>
-      <c r="I49" t="s">
-        <v>191</v>
-      </c>
       <c r="L49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M49">
         <v>255</v>
       </c>
       <c r="P49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
         <v>193</v>
-      </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
-        <v>194</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" t="s">
@@ -4660,21 +4658,21 @@
         <v>19</v>
       </c>
       <c r="P50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
         <v>196</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>197</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" t="s">
@@ -4684,24 +4682,24 @@
         <v>19</v>
       </c>
       <c r="P51" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q51" t="s">
         <v>198</v>
       </c>
-      <c r="Q51" t="s">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
         <v>200</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>201</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" t="s">
@@ -4711,29 +4709,29 @@
         <v>19</v>
       </c>
       <c r="P52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
         <v>203</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
         <v>204</v>
       </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>205</v>
-      </c>
       <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
         <v>48</v>
-      </c>
-      <c r="K55" t="s">
-        <v>49</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -4742,47 +4740,47 @@
         <v>20</v>
       </c>
       <c r="Q55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
         <v>206</v>
       </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" t="s">
         <v>207</v>
       </c>
-      <c r="L56" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
         <v>208</v>
       </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>209</v>
-      </c>
       <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" t="s">
         <v>48</v>
-      </c>
-      <c r="K57" t="s">
-        <v>49</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -4791,67 +4789,67 @@
         <v>20</v>
       </c>
       <c r="Q57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
         <v>211</v>
       </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
         <v>212</v>
       </c>
-      <c r="L58" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
         <v>213</v>
       </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q59" t="s">
         <v>214</v>
       </c>
-      <c r="L59" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q59" t="s">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
         <v>216</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" t="s">
-        <v>217</v>
-      </c>
       <c r="J60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" t="s">
         <v>48</v>
-      </c>
-      <c r="K60" t="s">
-        <v>49</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
@@ -4860,47 +4858,47 @@
         <v>20</v>
       </c>
       <c r="Q60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
         <v>218</v>
       </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61" t="s">
         <v>219</v>
       </c>
-      <c r="L61" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q61" t="s">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
         <v>221</v>
       </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" t="s">
-        <v>222</v>
-      </c>
       <c r="J62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" t="s">
         <v>48</v>
-      </c>
-      <c r="K62" t="s">
-        <v>49</v>
       </c>
       <c r="L62" t="s">
         <v>22</v>
@@ -4909,21 +4907,21 @@
         <v>20</v>
       </c>
       <c r="Q62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
         <v>223</v>
-      </c>
-      <c r="E63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" t="s">
-        <v>224</v>
       </c>
       <c r="L63" t="s">
         <v>26</v>
@@ -4932,21 +4930,21 @@
         <v>19</v>
       </c>
       <c r="P63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
         <v>226</v>
-      </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" t="s">
-        <v>227</v>
       </c>
       <c r="L64" t="s">
         <v>26</v>
@@ -4955,38 +4953,38 @@
         <v>19</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
         <v>228</v>
       </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>229</v>
       </c>
-      <c r="I65" t="s">
-        <v>230</v>
-      </c>
       <c r="L65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M65">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -4995,33 +4993,33 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M66">
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" t="s">
         <v>232</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>186</v>
-      </c>
-      <c r="I67" t="s">
-        <v>233</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" t="s">
@@ -5031,21 +5029,21 @@
         <v>19</v>
       </c>
       <c r="P67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
         <v>235</v>
-      </c>
-      <c r="E68" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" t="s">
-        <v>236</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" t="s">
@@ -5055,35 +5053,35 @@
         <v>19</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="70" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>238</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
         <v>239</v>
       </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>240</v>
-      </c>
-      <c r="K71" t="s">
-        <v>241</v>
       </c>
       <c r="L71" t="s">
         <v>26</v>
@@ -5095,33 +5093,33 @@
         <v>20</v>
       </c>
       <c r="P71" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q71" t="s">
         <v>242</v>
       </c>
-      <c r="Q71" t="s">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>244</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
         <v>245</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>246</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" t="s">
@@ -5131,36 +5129,36 @@
         <v>19</v>
       </c>
       <c r="P72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>248</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
         <v>249</v>
       </c>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s">
-        <v>250</v>
-      </c>
       <c r="L73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M73">
         <v>150</v>
@@ -5169,30 +5167,30 @@
         <v>19</v>
       </c>
       <c r="O73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
         <v>251</v>
       </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>252</v>
       </c>
-      <c r="I74" t="s">
-        <v>253</v>
-      </c>
       <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" t="s">
         <v>48</v>
-      </c>
-      <c r="K74" t="s">
-        <v>49</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -5201,53 +5199,53 @@
         <v>20</v>
       </c>
       <c r="Q74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>255</v>
       </c>
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>256</v>
       </c>
-      <c r="I75" t="s">
+      <c r="L75" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
         <v>257</v>
       </c>
-      <c r="L75" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>251</v>
+      </c>
+      <c r="I76" t="s">
         <v>258</v>
       </c>
-      <c r="E76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s">
-        <v>252</v>
-      </c>
-      <c r="I76" t="s">
-        <v>259</v>
-      </c>
       <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s">
         <v>48</v>
-      </c>
-      <c r="K76" t="s">
-        <v>49</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -5256,47 +5254,47 @@
         <v>20</v>
       </c>
       <c r="Q76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I77" t="s">
         <v>261</v>
       </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
-        <v>256</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="L77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
         <v>262</v>
       </c>
-      <c r="L77" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>237</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>263</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
         <v>264</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>265</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" t="s">
@@ -5306,24 +5304,24 @@
         <v>19</v>
       </c>
       <c r="P78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" t="s">
         <v>267</v>
-      </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>186</v>
-      </c>
-      <c r="I79" t="s">
-        <v>268</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" t="s">
@@ -5333,61 +5331,61 @@
         <v>19</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" t="s">
         <v>269</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s">
         <v>270</v>
       </c>
-      <c r="D82" t="s">
-        <v>270</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" t="s">
-        <v>271</v>
-      </c>
       <c r="L82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M82">
         <v>25</v>
       </c>
       <c r="P82" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q82" t="s">
         <v>272</v>
       </c>
-      <c r="Q82" t="s">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" t="s">
         <v>274</v>
-      </c>
-      <c r="D83" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>53</v>
-      </c>
-      <c r="I83" t="s">
-        <v>275</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
@@ -5397,30 +5395,30 @@
         <v>19</v>
       </c>
       <c r="P83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>269</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
         <v>277</v>
-      </c>
-      <c r="D84" t="s">
-        <v>277</v>
-      </c>
-      <c r="E84" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s">
-        <v>278</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
@@ -5430,30 +5428,30 @@
         <v>19</v>
       </c>
       <c r="P84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
         <v>280</v>
       </c>
-      <c r="D85" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
         <v>281</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>282</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
@@ -5463,30 +5461,30 @@
         <v>19</v>
       </c>
       <c r="P85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
         <v>284</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
         <v>285</v>
-      </c>
-      <c r="D86" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s">
-        <v>286</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
@@ -5496,88 +5494,88 @@
         <v>19</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>288</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" t="s">
         <v>289</v>
       </c>
-      <c r="E87" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="I87" t="s">
-        <v>290</v>
-      </c>
       <c r="L87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M87">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" t="s">
         <v>291</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
         <v>292</v>
       </c>
-      <c r="E88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>293</v>
       </c>
-      <c r="I88" t="s">
-        <v>294</v>
-      </c>
       <c r="L88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M88">
         <v>100</v>
       </c>
       <c r="Q88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>296</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
         <v>297</v>
       </c>
-      <c r="E89" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
         <v>298</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s">
-        <v>299</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
@@ -5587,30 +5585,30 @@
         <v>19</v>
       </c>
       <c r="P89" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>284</v>
-      </c>
       <c r="C90" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
         <v>300</v>
-      </c>
-      <c r="D90" t="s">
-        <v>300</v>
-      </c>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s">
-        <v>301</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -5619,36 +5617,36 @@
         <v>19</v>
       </c>
       <c r="P90" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q90" t="s">
         <v>302</v>
       </c>
-      <c r="Q90" t="s">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>303</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
         <v>304</v>
       </c>
-      <c r="D91" t="s">
-        <v>304</v>
-      </c>
-      <c r="E91" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>305</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>306</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="L91" t="s">
         <v>26</v>
@@ -5657,342 +5655,342 @@
         <v>20</v>
       </c>
       <c r="P91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" t="s">
         <v>310</v>
       </c>
-      <c r="D92" t="s">
-        <v>310</v>
-      </c>
-      <c r="E92" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-      <c r="I92" t="s">
-        <v>311</v>
-      </c>
       <c r="L92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M92">
         <v>800</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" t="s">
+        <v>311</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" t="s">
         <v>312</v>
       </c>
-      <c r="D93" t="s">
-        <v>312</v>
-      </c>
-      <c r="E93" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" t="s">
-        <v>58</v>
-      </c>
-      <c r="I93" t="s">
-        <v>313</v>
-      </c>
       <c r="L93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M93">
         <v>800</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" t="s">
+        <v>313</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" t="s">
         <v>314</v>
       </c>
-      <c r="D94" t="s">
-        <v>314</v>
-      </c>
-      <c r="E94" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" t="s">
-        <v>58</v>
-      </c>
-      <c r="I94" t="s">
-        <v>315</v>
-      </c>
       <c r="L94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M94">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" t="s">
+        <v>315</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" t="s">
         <v>316</v>
       </c>
-      <c r="D95" t="s">
-        <v>316</v>
-      </c>
-      <c r="E95" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-      <c r="I95" t="s">
-        <v>317</v>
-      </c>
       <c r="L95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M95">
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" t="s">
         <v>318</v>
       </c>
-      <c r="D96" t="s">
-        <v>318</v>
-      </c>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-      <c r="I96" t="s">
-        <v>319</v>
-      </c>
       <c r="L96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M96">
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>57</v>
+      </c>
+      <c r="I97" t="s">
         <v>320</v>
       </c>
-      <c r="D97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" t="s">
-        <v>58</v>
-      </c>
-      <c r="I97" t="s">
-        <v>321</v>
-      </c>
       <c r="L97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M97">
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" t="s">
         <v>322</v>
       </c>
-      <c r="D98" t="s">
-        <v>322</v>
-      </c>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" t="s">
-        <v>58</v>
-      </c>
-      <c r="I98" t="s">
-        <v>323</v>
-      </c>
       <c r="L98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M98">
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" t="s">
         <v>324</v>
       </c>
-      <c r="D99" t="s">
-        <v>324</v>
-      </c>
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" t="s">
-        <v>58</v>
-      </c>
-      <c r="I99" t="s">
-        <v>325</v>
-      </c>
       <c r="L99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" t="s">
+        <v>325</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" t="s">
         <v>326</v>
       </c>
-      <c r="D100" t="s">
-        <v>326</v>
-      </c>
-      <c r="E100" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
-      </c>
-      <c r="I100" t="s">
-        <v>327</v>
-      </c>
       <c r="L100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M100">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" t="s">
+        <v>327</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" t="s">
         <v>328</v>
       </c>
-      <c r="D101" t="s">
-        <v>328</v>
-      </c>
-      <c r="E101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I101" t="s">
-        <v>329</v>
-      </c>
       <c r="L101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M101">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
+        <v>329</v>
+      </c>
+      <c r="D102" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" t="s">
         <v>330</v>
       </c>
-      <c r="D102" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-      <c r="I102" t="s">
-        <v>331</v>
-      </c>
       <c r="L102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M102">
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" t="s">
         <v>332</v>
       </c>
-      <c r="D103" t="s">
-        <v>332</v>
-      </c>
-      <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" t="s">
-        <v>58</v>
-      </c>
-      <c r="I103" t="s">
-        <v>333</v>
-      </c>
       <c r="L103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M103">
         <v>800</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C104" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
         <v>334</v>
       </c>
-      <c r="D104" t="s">
-        <v>334</v>
-      </c>
-      <c r="E104" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
         <v>335</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>336</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" t="s">
@@ -6002,33 +6000,33 @@
         <v>19</v>
       </c>
       <c r="P104" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>283</v>
       </c>
-      <c r="Q104" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>284</v>
-      </c>
       <c r="C105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>334</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
         <v>337</v>
-      </c>
-      <c r="D105" t="s">
-        <v>337</v>
-      </c>
-      <c r="E105" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" t="s">
-        <v>335</v>
-      </c>
-      <c r="H105" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" t="s">
-        <v>338</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" t="s">
@@ -6038,33 +6036,33 @@
         <v>19</v>
       </c>
       <c r="P105" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>283</v>
       </c>
-      <c r="Q105" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>284</v>
-      </c>
       <c r="C106" t="s">
+        <v>338</v>
+      </c>
+      <c r="D106" t="s">
+        <v>338</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>280</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
         <v>339</v>
-      </c>
-      <c r="D106" t="s">
-        <v>339</v>
-      </c>
-      <c r="E106" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" t="s">
-        <v>281</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" t="s">
-        <v>340</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" t="s">
@@ -6074,33 +6072,33 @@
         <v>19</v>
       </c>
       <c r="P106" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>283</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="C107" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>341</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>334</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
         <v>342</v>
-      </c>
-      <c r="D107" t="s">
-        <v>342</v>
-      </c>
-      <c r="E107" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" t="s">
-        <v>335</v>
-      </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>343</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" t="s">
@@ -6110,30 +6108,30 @@
         <v>19</v>
       </c>
       <c r="P107" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>283</v>
       </c>
-      <c r="Q107" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>284</v>
-      </c>
       <c r="C108" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" t="s">
+        <v>343</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>334</v>
+      </c>
+      <c r="I108" t="s">
         <v>344</v>
-      </c>
-      <c r="D108" t="s">
-        <v>344</v>
-      </c>
-      <c r="E108" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" t="s">
-        <v>335</v>
-      </c>
-      <c r="I108" t="s">
-        <v>345</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" t="s">
@@ -6143,27 +6141,27 @@
         <v>19</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" t="s">
         <v>346</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>334</v>
+      </c>
+      <c r="I109" t="s">
         <v>347</v>
-      </c>
-      <c r="D109" t="s">
-        <v>347</v>
-      </c>
-      <c r="E109" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" t="s">
-        <v>335</v>
-      </c>
-      <c r="I109" t="s">
-        <v>348</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" t="s">
@@ -6173,30 +6171,30 @@
         <v>19</v>
       </c>
       <c r="P109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>350</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
         <v>351</v>
       </c>
-      <c r="E111" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" t="s">
-        <v>352</v>
-      </c>
       <c r="J111" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111" t="s">
         <v>48</v>
-      </c>
-      <c r="K111" t="s">
-        <v>49</v>
       </c>
       <c r="L111" t="s">
         <v>22</v>
@@ -6205,44 +6203,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" t="s">
+        <v>352</v>
+      </c>
+      <c r="D112" t="s">
+        <v>350</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
         <v>353</v>
       </c>
-      <c r="D112" t="s">
-        <v>351</v>
-      </c>
-      <c r="E112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="L112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
         <v>354</v>
       </c>
-      <c r="L112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>355</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>185</v>
+      </c>
+      <c r="I113" t="s">
         <v>356</v>
-      </c>
-      <c r="E113" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" t="s">
-        <v>186</v>
-      </c>
-      <c r="I113" t="s">
-        <v>357</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" t="s">
@@ -6252,30 +6250,30 @@
         <v>19</v>
       </c>
       <c r="P113" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
+        <v>349</v>
+      </c>
+      <c r="D114" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" t="s">
-        <v>350</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
         <v>359</v>
       </c>
-      <c r="E114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
-        <v>360</v>
-      </c>
       <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114" t="s">
         <v>48</v>
-      </c>
-      <c r="K114" t="s">
-        <v>49</v>
       </c>
       <c r="L114" t="s">
         <v>22</v>
@@ -6284,53 +6282,53 @@
         <v>20</v>
       </c>
       <c r="Q114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+      <c r="D115" t="s">
+        <v>358</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" t="s">
-        <v>353</v>
-      </c>
-      <c r="D115" t="s">
-        <v>359</v>
-      </c>
-      <c r="E115" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="L115" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
         <v>362</v>
       </c>
-      <c r="L115" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
         <v>363</v>
       </c>
-      <c r="D116" t="s">
-        <v>359</v>
-      </c>
-      <c r="E116" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116" t="s">
-        <v>364</v>
-      </c>
       <c r="J116" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" t="s">
         <v>48</v>
-      </c>
-      <c r="K116" t="s">
-        <v>49</v>
       </c>
       <c r="L116" t="s">
         <v>22</v>
@@ -6339,53 +6337,53 @@
         <v>20</v>
       </c>
       <c r="Q116" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A117" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>358</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
         <v>366</v>
       </c>
-      <c r="D117" t="s">
-        <v>359</v>
-      </c>
-      <c r="E117" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="L117" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" t="s">
         <v>367</v>
       </c>
-      <c r="L117" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>269</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>368</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
         <v>369</v>
       </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118" t="s">
-        <v>370</v>
-      </c>
       <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" t="s">
         <v>48</v>
-      </c>
-      <c r="K118" t="s">
-        <v>49</v>
       </c>
       <c r="L118" t="s">
         <v>22</v>
@@ -6394,53 +6392,53 @@
         <v>20</v>
       </c>
       <c r="Q118" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>368</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
         <v>372</v>
       </c>
-      <c r="D119" t="s">
-        <v>369</v>
-      </c>
-      <c r="E119" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="L119" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" t="s">
+        <v>368</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
         <v>373</v>
       </c>
-      <c r="L119" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A120" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" t="s">
-        <v>369</v>
-      </c>
-      <c r="E120" t="s">
-        <v>19</v>
-      </c>
-      <c r="I120" t="s">
-        <v>374</v>
-      </c>
       <c r="J120" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" t="s">
         <v>48</v>
-      </c>
-      <c r="K120" t="s">
-        <v>49</v>
       </c>
       <c r="L120" t="s">
         <v>22</v>
@@ -6449,50 +6447,50 @@
         <v>20</v>
       </c>
       <c r="Q120" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" t="s">
+        <v>368</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A121" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" t="s">
-        <v>366</v>
-      </c>
-      <c r="D121" t="s">
-        <v>369</v>
-      </c>
-      <c r="E121" t="s">
-        <v>19</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="L121" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
         <v>376</v>
       </c>
-      <c r="L121" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>377</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" t="s">
+        <v>185</v>
+      </c>
+      <c r="I122" t="s">
         <v>378</v>
-      </c>
-      <c r="E122" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" t="s">
-        <v>186</v>
-      </c>
-      <c r="I122" t="s">
-        <v>379</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="8" t="s">
@@ -6502,27 +6500,27 @@
         <v>19</v>
       </c>
       <c r="P122" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>381</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>185</v>
+      </c>
+      <c r="I123" t="s">
         <v>382</v>
-      </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" t="s">
-        <v>186</v>
-      </c>
-      <c r="I123" t="s">
-        <v>383</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" t="s">
@@ -6532,24 +6530,24 @@
         <v>19</v>
       </c>
       <c r="P123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>385</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
         <v>386</v>
-      </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" t="s">
-        <v>387</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" t="s">
@@ -6559,27 +6557,27 @@
         <v>19</v>
       </c>
       <c r="O124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P124" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>269</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>389</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
         <v>390</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="I125" t="s">
-        <v>391</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" t="s">
@@ -6589,30 +6587,30 @@
         <v>19</v>
       </c>
       <c r="O125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P125" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q125" t="s">
         <v>198</v>
       </c>
-      <c r="Q125" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C126" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126" t="s">
         <v>392</v>
-      </c>
-      <c r="E126" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" t="s">
-        <v>186</v>
-      </c>
-      <c r="I126" t="s">
-        <v>393</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" t="s">
@@ -6622,26 +6620,26 @@
         <v>19</v>
       </c>
       <c r="P126" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
+        <v>393</v>
+      </c>
+      <c r="D129" t="s">
         <v>394</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
         <v>395</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" t="s">
-        <v>396</v>
       </c>
       <c r="L129" t="s">
         <v>22</v>
@@ -6650,73 +6648,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C130" t="s">
+        <v>396</v>
+      </c>
+      <c r="D130" t="s">
         <v>397</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
         <v>398</v>
       </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="L130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" t="s">
         <v>399</v>
       </c>
-      <c r="L130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>346</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>400</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" t="s">
         <v>401</v>
       </c>
-      <c r="E131" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>58</v>
-      </c>
-      <c r="I131" t="s">
-        <v>402</v>
-      </c>
       <c r="L131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M131">
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>402</v>
+      </c>
+      <c r="C132" t="s">
         <v>403</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>404</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>280</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
         <v>405</v>
-      </c>
-      <c r="E132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" t="s">
-        <v>281</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" t="s">
-        <v>406</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" t="s">
@@ -6726,33 +6724,33 @@
         <v>19</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q132" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
+        <v>406</v>
+      </c>
+      <c r="D133" t="s">
+        <v>406</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>297</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="D133" t="s">
-        <v>407</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" t="s">
-        <v>298</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" t="s">
@@ -6762,27 +6760,27 @@
         <v>19</v>
       </c>
       <c r="P133" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q133" t="s">
         <v>409</v>
       </c>
-      <c r="Q133" t="s">
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>346</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>185</v>
+      </c>
+      <c r="I134" t="s">
         <v>411</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" t="s">
-        <v>186</v>
-      </c>
-      <c r="I134" t="s">
-        <v>412</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" t="s">
@@ -6792,29 +6790,29 @@
         <v>19</v>
       </c>
       <c r="P134" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="136" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>412</v>
+      </c>
+      <c r="C137" t="s">
         <v>413</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>414</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
         <v>415</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" t="s">
-        <v>416</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" t="s">
@@ -6824,30 +6822,30 @@
         <v>19</v>
       </c>
       <c r="P137" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>413</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>418</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>334</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" t="s">
         <v>419</v>
-      </c>
-      <c r="E138" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" t="s">
-        <v>335</v>
-      </c>
-      <c r="G138" t="s">
-        <v>20</v>
-      </c>
-      <c r="I138" t="s">
-        <v>420</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" t="s">
@@ -6857,30 +6855,30 @@
         <v>19</v>
       </c>
       <c r="P138" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>412</v>
+      </c>
+      <c r="C139" t="s">
+        <v>417</v>
+      </c>
+      <c r="D139" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>413</v>
-      </c>
-      <c r="C139" t="s">
-        <v>418</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>334</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
         <v>422</v>
-      </c>
-      <c r="E139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>335</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" t="s">
-        <v>423</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" t="s">
@@ -6890,33 +6888,33 @@
         <v>19</v>
       </c>
       <c r="P139" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q139" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>413</v>
-      </c>
-      <c r="C140" t="s">
-        <v>418</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>185</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
         <v>425</v>
-      </c>
-      <c r="E140" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" t="s">
-        <v>186</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
-      <c r="I140" t="s">
-        <v>426</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" t="s">
@@ -6926,30 +6924,30 @@
         <v>19</v>
       </c>
       <c r="P140" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C141" t="s">
+        <v>426</v>
+      </c>
+      <c r="D141" t="s">
         <v>427</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>185</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s">
         <v>428</v>
-      </c>
-      <c r="E141" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" t="s">
-        <v>186</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141" t="s">
-        <v>429</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" t="s">
@@ -6959,30 +6957,30 @@
         <v>19</v>
       </c>
       <c r="P141" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>413</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>431</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s">
         <v>432</v>
-      </c>
-      <c r="E142" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" t="s">
-        <v>186</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
-      <c r="I142" t="s">
-        <v>433</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" t="s">
@@ -6992,62 +6990,62 @@
         <v>19</v>
       </c>
       <c r="P142" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C143" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" t="s">
         <v>434</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>304</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
         <v>435</v>
       </c>
-      <c r="E143" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" t="s">
-        <v>305</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" t="s">
-        <v>436</v>
-      </c>
       <c r="L143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M143">
         <v>25</v>
       </c>
       <c r="P143" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>412</v>
+      </c>
+      <c r="C145" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>413</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>438</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
         <v>439</v>
       </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="I145" t="s">
-        <v>440</v>
-      </c>
       <c r="J145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145" t="s">
         <v>48</v>
-      </c>
-      <c r="K145" t="s">
-        <v>49</v>
       </c>
       <c r="L145" t="s">
         <v>22</v>
@@ -7056,53 +7054,53 @@
         <v>20</v>
       </c>
       <c r="Q145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>413</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
         <v>442</v>
       </c>
-      <c r="D146" t="s">
-        <v>439</v>
-      </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="L146" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" t="s">
         <v>443</v>
       </c>
-      <c r="L146" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>413</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>438</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
         <v>444</v>
       </c>
-      <c r="D147" t="s">
-        <v>439</v>
-      </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" t="s">
-        <v>445</v>
-      </c>
       <c r="J147" t="s">
+        <v>47</v>
+      </c>
+      <c r="K147" t="s">
         <v>48</v>
-      </c>
-      <c r="K147" t="s">
-        <v>49</v>
       </c>
       <c r="L147" t="s">
         <v>22</v>
@@ -7111,53 +7109,53 @@
         <v>20</v>
       </c>
       <c r="Q147" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>413</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>438</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
         <v>447</v>
       </c>
-      <c r="D148" t="s">
-        <v>439</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="L148" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" t="s">
         <v>448</v>
       </c>
-      <c r="L148" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>413</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>449</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
         <v>450</v>
       </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" t="s">
-        <v>451</v>
-      </c>
       <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149" t="s">
         <v>48</v>
-      </c>
-      <c r="K149" t="s">
-        <v>49</v>
       </c>
       <c r="L149" t="s">
         <v>22</v>
@@ -7166,53 +7164,53 @@
         <v>20</v>
       </c>
       <c r="Q149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>412</v>
+      </c>
+      <c r="C150" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>413</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>449</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
         <v>453</v>
       </c>
-      <c r="D150" t="s">
-        <v>450</v>
-      </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="L150" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151" t="s">
         <v>454</v>
       </c>
-      <c r="L150" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>413</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>449</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
         <v>455</v>
       </c>
-      <c r="D151" t="s">
-        <v>450</v>
-      </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151" t="s">
-        <v>456</v>
-      </c>
       <c r="J151" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151" t="s">
         <v>48</v>
-      </c>
-      <c r="K151" t="s">
-        <v>49</v>
       </c>
       <c r="L151" t="s">
         <v>22</v>
@@ -7221,53 +7219,53 @@
         <v>20</v>
       </c>
       <c r="Q151" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>413</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>449</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
         <v>458</v>
       </c>
-      <c r="D152" t="s">
-        <v>450</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="L152" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>412</v>
+      </c>
+      <c r="C153" t="s">
         <v>459</v>
       </c>
-      <c r="L152" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>413</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>460</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
         <v>461</v>
       </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="I153" t="s">
-        <v>462</v>
-      </c>
       <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" t="s">
         <v>48</v>
-      </c>
-      <c r="K153" t="s">
-        <v>49</v>
       </c>
       <c r="L153" t="s">
         <v>22</v>
@@ -7276,52 +7274,52 @@
         <v>20</v>
       </c>
       <c r="Q153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>412</v>
+      </c>
+      <c r="C154" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>413</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>460</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
         <v>464</v>
       </c>
-      <c r="D154" t="s">
-        <v>461</v>
-      </c>
-      <c r="E154" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="L154" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>465</v>
       </c>
-      <c r="L154" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="156" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="C157" t="s">
         <v>466</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>466</v>
+      </c>
+      <c r="E157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>52</v>
+      </c>
+      <c r="I157" t="s">
         <v>467</v>
-      </c>
-      <c r="D157" t="s">
-        <v>467</v>
-      </c>
-      <c r="E157" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" t="s">
-        <v>53</v>
-      </c>
-      <c r="I157" t="s">
-        <v>468</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" t="s">
@@ -7331,47 +7329,47 @@
         <v>19</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q157" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C158" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" t="s">
         <v>469</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
         <v>470</v>
       </c>
-      <c r="E158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="L158" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>465</v>
+      </c>
+      <c r="C159" t="s">
         <v>471</v>
       </c>
-      <c r="L158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>466</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>472</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
         <v>473</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159" t="s">
-        <v>474</v>
       </c>
       <c r="L159" t="s">
         <v>22</v>
@@ -7380,21 +7378,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
+        <v>474</v>
+      </c>
+      <c r="D160" t="s">
         <v>475</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
         <v>476</v>
-      </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="I160" t="s">
-        <v>477</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" t="s">
@@ -7404,21 +7402,21 @@
         <v>19</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q161" s="8"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q162" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/Book24.xlsx
+++ b/excel_data/Book24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TME-1\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD5C1B-A4F0-4A68-882B-3584F2B214CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66112D7-2364-4161-B8E2-12824D303408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E479D578-BD8A-4895-B658-716D462F331C}"/>
   </bookViews>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7637C-B6C0-45EB-BF4B-9D78094334E4}">
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,22 +5975,22 @@
         <v>283</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E104" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" t="s">
@@ -6003,7 +6003,7 @@
         <v>282</v>
       </c>
       <c r="Q104" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -6011,10 +6011,10 @@
         <v>283</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E105" t="s">
         <v>20</v>
@@ -6026,7 +6026,7 @@
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" t="s">
@@ -6047,22 +6047,22 @@
         <v>283</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E106" t="s">
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H106" t="s">
         <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" t="s">
@@ -6075,7 +6075,7 @@
         <v>282</v>
       </c>
       <c r="Q106" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">

--- a/excel_data/Book24.xlsx
+++ b/excel_data/Book24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TME-1\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66112D7-2364-4161-B8E2-12824D303408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EBBBF9-9672-446F-929F-A9C09C0273E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E479D578-BD8A-4895-B658-716D462F331C}"/>
   </bookViews>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7637C-B6C0-45EB-BF4B-9D78094334E4}">
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C104" sqref="A104:XFD104"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
